--- a/triba27_m5out_stats.xlsx
+++ b/triba27_m5out_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\soliman\m5out_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B5FA72-DB08-4C5A-9847-D3FF1E916AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0F3ADE-9027-467C-B79A-7F662366A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,6 +103,956 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average_flit_latency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.815833710000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.269025246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.051912258000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.858958189999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6885.8206310679998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9371.3685223619996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9712.9893241999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9800.4853509500008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12081.895278778</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13327.115974417999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CA2-4AAD-A568-302577737199}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="401103151"/>
+        <c:axId val="503766671"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="401103151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503766671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="503766671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401103151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>967740</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1348740</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DC9A07-EE1A-B811-47C5-DFA12D1518FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1097,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D312D1-BC7F-4C4D-8AB5-A0A35AD66E3E}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1959,5 +2909,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/triba27_m5out_stats.xlsx
+++ b/triba27_m5out_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\soliman\m5out_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0F3ADE-9027-467C-B79A-7F662366A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAFBAF9-E880-48FF-87D9-F89F120DF539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="20292" windowHeight="11148" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,956 +103,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>average_flit_latency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>14.815833710000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.269025246</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.051912258000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47.858958189999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6885.8206310679998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9371.3685223619996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9712.9893241999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9800.4853509500008</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12081.895278778</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13327.115974417999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0CA2-4AAD-A568-302577737199}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="401103151"/>
-        <c:axId val="503766671"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="401103151"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="503766671"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="503766671"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="401103151"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>967740</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1348740</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DC9A07-EE1A-B811-47C5-DFA12D1518FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2045,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D312D1-BC7F-4C4D-8AB5-A0A35AD66E3E}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2132,594 +1182,594 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="B3" s="1">
-        <f>Sheet1!B3/500</f>
-        <v>15.269025246</v>
+        <f>Sheet1!B4/500</f>
+        <v>16.051912258000002</v>
       </c>
       <c r="C3" s="1">
-        <f>Sheet1!C3/500</f>
-        <v>13.25809273</v>
+        <f>Sheet1!C4/500</f>
+        <v>14.018390977999999</v>
       </c>
       <c r="D3" s="1">
-        <f>Sheet1!D3/500</f>
-        <v>2.0109325180000002</v>
+        <f>Sheet1!D4/500</f>
+        <v>2.03352128</v>
       </c>
       <c r="E3" s="1">
-        <f>Sheet1!E3/500</f>
-        <v>12.139365325333332</v>
+        <f>Sheet1!E4/500</f>
+        <v>12.516152875333333</v>
       </c>
       <c r="F3" s="1">
-        <f>Sheet1!F3/500</f>
-        <v>15.11672167</v>
+        <f>Sheet1!F4/500</f>
+        <v>15.580212756000002</v>
       </c>
       <c r="G3" s="1">
-        <f>Sheet1!G3/500</f>
-        <v>13.11143644</v>
+        <f>Sheet1!G4/500</f>
+        <v>13.56371599</v>
       </c>
       <c r="H3" s="1">
-        <f>Sheet1!H3/500</f>
-        <v>2.005285228</v>
+        <f>Sheet1!H4/500</f>
+        <v>2.0164967680000001</v>
       </c>
       <c r="I3" s="1">
-        <f>Sheet1!I3/500</f>
-        <v>13.12161116</v>
+        <f>Sheet1!I4/500</f>
+        <v>13.541869646666667</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B4" s="1">
-        <f>Sheet1!B4/500</f>
-        <v>16.051912258000002</v>
+        <f>Sheet1!B5/500</f>
+        <v>47.858958189999996</v>
       </c>
       <c r="C4" s="1">
-        <f>Sheet1!C4/500</f>
-        <v>14.018390977999999</v>
+        <f>Sheet1!C5/500</f>
+        <v>27.284272458</v>
       </c>
       <c r="D4" s="1">
-        <f>Sheet1!D4/500</f>
-        <v>2.03352128</v>
+        <f>Sheet1!D5/500</f>
+        <v>20.574685732000003</v>
       </c>
       <c r="E4" s="1">
-        <f>Sheet1!E4/500</f>
-        <v>12.516152875333333</v>
+        <f>Sheet1!E5/500</f>
+        <v>18.824052771333331</v>
       </c>
       <c r="F4" s="1">
-        <f>Sheet1!F4/500</f>
-        <v>15.580212756000002</v>
+        <f>Sheet1!F5/500</f>
+        <v>30.758395696000001</v>
       </c>
       <c r="G4" s="1">
-        <f>Sheet1!G4/500</f>
-        <v>13.56371599</v>
+        <f>Sheet1!G5/500</f>
+        <v>20.064913831999998</v>
       </c>
       <c r="H4" s="1">
-        <f>Sheet1!H4/500</f>
-        <v>2.0164967680000001</v>
+        <f>Sheet1!H5/500</f>
+        <v>10.693481863999999</v>
       </c>
       <c r="I4" s="1">
-        <f>Sheet1!I4/500</f>
-        <v>13.541869646666667</v>
+        <f>Sheet1!I5/500</f>
+        <v>20.027100533333343</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="B5" s="1">
-        <f>Sheet1!B5/500</f>
-        <v>47.858958189999996</v>
+        <f>Sheet1!B6/500</f>
+        <v>6885.8206310679998</v>
       </c>
       <c r="C5" s="1">
-        <f>Sheet1!C5/500</f>
-        <v>27.284272458</v>
+        <f>Sheet1!C6/500</f>
+        <v>38.390620888000001</v>
       </c>
       <c r="D5" s="1">
-        <f>Sheet1!D5/500</f>
-        <v>20.574685732000003</v>
+        <f>Sheet1!D6/500</f>
+        <v>6847.43001018</v>
       </c>
       <c r="E5" s="1">
-        <f>Sheet1!E5/500</f>
-        <v>18.824052771333331</v>
+        <f>Sheet1!E6/500</f>
+        <v>25.620594862000001</v>
       </c>
       <c r="F5" s="1">
-        <f>Sheet1!F5/500</f>
-        <v>30.758395696000001</v>
+        <f>Sheet1!F6/500</f>
+        <v>2834.2029870600004</v>
       </c>
       <c r="G5" s="1">
-        <f>Sheet1!G5/500</f>
-        <v>20.064913831999998</v>
+        <f>Sheet1!G6/500</f>
+        <v>23.664378295999999</v>
       </c>
       <c r="H5" s="1">
-        <f>Sheet1!H5/500</f>
-        <v>10.693481863999999</v>
+        <f>Sheet1!H6/500</f>
+        <v>2810.5386087639999</v>
       </c>
       <c r="I5" s="1">
-        <f>Sheet1!I5/500</f>
-        <v>20.027100533333343</v>
+        <f>Sheet1!I6/500</f>
+        <v>26.853732985333341</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="B6" s="1">
-        <f>Sheet1!B6/500</f>
-        <v>6885.8206310679998</v>
+        <f>Sheet1!B7/500</f>
+        <v>9371.3685223619996</v>
       </c>
       <c r="C6" s="1">
-        <f>Sheet1!C6/500</f>
-        <v>38.390620888000001</v>
+        <f>Sheet1!C7/500</f>
+        <v>35.309386752000002</v>
       </c>
       <c r="D6" s="1">
-        <f>Sheet1!D6/500</f>
-        <v>6847.43001018</v>
+        <f>Sheet1!D7/500</f>
+        <v>9336.0591356080004</v>
       </c>
       <c r="E6" s="1">
-        <f>Sheet1!E6/500</f>
-        <v>25.620594862000001</v>
+        <f>Sheet1!E7/500</f>
+        <v>25.351313633999997</v>
       </c>
       <c r="F6" s="1">
-        <f>Sheet1!F6/500</f>
-        <v>2834.2029870600004</v>
+        <f>Sheet1!F7/500</f>
+        <v>3557.7612490619999</v>
       </c>
       <c r="G6" s="1">
-        <f>Sheet1!G6/500</f>
-        <v>23.664378295999999</v>
+        <f>Sheet1!G7/500</f>
+        <v>21.923759952000001</v>
       </c>
       <c r="H6" s="1">
-        <f>Sheet1!H6/500</f>
-        <v>2810.5386087639999</v>
+        <f>Sheet1!H7/500</f>
+        <v>3535.8374891120002</v>
       </c>
       <c r="I6" s="1">
-        <f>Sheet1!I6/500</f>
-        <v>26.853732985333341</v>
+        <f>Sheet1!I7/500</f>
+        <v>26.616163697333342</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="B7" s="1">
-        <f>Sheet1!B7/500</f>
-        <v>9371.3685223619996</v>
+        <f>Sheet1!B8/500</f>
+        <v>9712.9893241999998</v>
       </c>
       <c r="C7" s="1">
-        <f>Sheet1!C7/500</f>
-        <v>35.309386752000002</v>
+        <f>Sheet1!C8/500</f>
+        <v>33.786601959999999</v>
       </c>
       <c r="D7" s="1">
-        <f>Sheet1!D7/500</f>
-        <v>9336.0591356080004</v>
+        <f>Sheet1!D8/500</f>
+        <v>9679.2027222399993</v>
       </c>
       <c r="E7" s="1">
-        <f>Sheet1!E7/500</f>
-        <v>25.351313633999997</v>
+        <f>Sheet1!E8/500</f>
+        <v>26.036119434</v>
       </c>
       <c r="F7" s="1">
-        <f>Sheet1!F7/500</f>
-        <v>3557.7612490619999</v>
+        <f>Sheet1!F8/500</f>
+        <v>3482.0065170319999</v>
       </c>
       <c r="G7" s="1">
-        <f>Sheet1!G7/500</f>
-        <v>21.923759952000001</v>
+        <f>Sheet1!G8/500</f>
+        <v>21.931206721999999</v>
       </c>
       <c r="H7" s="1">
-        <f>Sheet1!H7/500</f>
-        <v>3535.8374891120002</v>
+        <f>Sheet1!H8/500</f>
+        <v>3460.0753103100001</v>
       </c>
       <c r="I7" s="1">
-        <f>Sheet1!I7/500</f>
-        <v>26.616163697333342</v>
+        <f>Sheet1!I8/500</f>
+        <v>27.346052916000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="B8" s="1">
-        <f>Sheet1!B8/500</f>
-        <v>9712.9893241999998</v>
+        <f>Sheet1!B9/500</f>
+        <v>9800.4853509500008</v>
       </c>
       <c r="C8" s="1">
-        <f>Sheet1!C8/500</f>
-        <v>33.786601959999999</v>
+        <f>Sheet1!C9/500</f>
+        <v>38.233858375999993</v>
       </c>
       <c r="D8" s="1">
-        <f>Sheet1!D8/500</f>
-        <v>9679.2027222399993</v>
+        <f>Sheet1!D9/500</f>
+        <v>9762.2514925740015</v>
       </c>
       <c r="E8" s="1">
-        <f>Sheet1!E8/500</f>
-        <v>26.036119434</v>
+        <f>Sheet1!E9/500</f>
+        <v>101.268000192</v>
       </c>
       <c r="F8" s="1">
-        <f>Sheet1!F8/500</f>
-        <v>3482.0065170319999</v>
+        <f>Sheet1!F9/500</f>
+        <v>3661.293060172</v>
       </c>
       <c r="G8" s="1">
-        <f>Sheet1!G8/500</f>
-        <v>21.931206721999999</v>
+        <f>Sheet1!G9/500</f>
+        <v>30.805208643999997</v>
       </c>
       <c r="H8" s="1">
-        <f>Sheet1!H8/500</f>
-        <v>3460.0753103100001</v>
+        <f>Sheet1!H9/500</f>
+        <v>3630.4878515260002</v>
       </c>
       <c r="I8" s="1">
-        <f>Sheet1!I8/500</f>
-        <v>27.346052916000001</v>
+        <f>Sheet1!I9/500</f>
+        <v>105.455461324</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="B9" s="1">
-        <f>Sheet1!B9/500</f>
-        <v>9800.4853509500008</v>
+        <f>Sheet1!B10/500</f>
+        <v>12081.895278778</v>
       </c>
       <c r="C9" s="1">
-        <f>Sheet1!C9/500</f>
-        <v>38.233858375999993</v>
+        <f>Sheet1!C10/500</f>
+        <v>41.689195319999996</v>
       </c>
       <c r="D9" s="1">
-        <f>Sheet1!D9/500</f>
-        <v>9762.2514925740015</v>
+        <f>Sheet1!D10/500</f>
+        <v>12040.206083458001</v>
       </c>
       <c r="E9" s="1">
-        <f>Sheet1!E9/500</f>
-        <v>101.268000192</v>
+        <f>Sheet1!E10/500</f>
+        <v>115.02334365200002</v>
       </c>
       <c r="F9" s="1">
-        <f>Sheet1!F9/500</f>
-        <v>3661.293060172</v>
+        <f>Sheet1!F10/500</f>
+        <v>7924.357217924</v>
       </c>
       <c r="G9" s="1">
-        <f>Sheet1!G9/500</f>
-        <v>30.805208643999997</v>
+        <f>Sheet1!G10/500</f>
+        <v>36.657835312000003</v>
       </c>
       <c r="H9" s="1">
-        <f>Sheet1!H9/500</f>
-        <v>3630.4878515260002</v>
+        <f>Sheet1!H10/500</f>
+        <v>7887.6993826120006</v>
       </c>
       <c r="I9" s="1">
-        <f>Sheet1!I9/500</f>
-        <v>105.455461324</v>
+        <f>Sheet1!I10/500</f>
+        <v>119.33580535400003</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="B10" s="1">
-        <f>Sheet1!B10/500</f>
-        <v>12081.895278778</v>
+        <f>Sheet1!B11/500</f>
+        <v>13327.115974417999</v>
       </c>
       <c r="C10" s="1">
-        <f>Sheet1!C10/500</f>
-        <v>41.689195319999996</v>
+        <f>Sheet1!C11/500</f>
+        <v>41.479091778000004</v>
       </c>
       <c r="D10" s="1">
-        <f>Sheet1!D10/500</f>
-        <v>12040.206083458001</v>
+        <f>Sheet1!D11/500</f>
+        <v>13285.636882638</v>
       </c>
       <c r="E10" s="1">
-        <f>Sheet1!E10/500</f>
-        <v>115.02334365200002</v>
+        <f>Sheet1!E11/500</f>
+        <v>114.457614124</v>
       </c>
       <c r="F10" s="1">
-        <f>Sheet1!F10/500</f>
-        <v>7924.357217924</v>
+        <f>Sheet1!F11/500</f>
+        <v>10700.181603318</v>
       </c>
       <c r="G10" s="1">
-        <f>Sheet1!G10/500</f>
-        <v>36.657835312000003</v>
+        <f>Sheet1!G11/500</f>
+        <v>36.623332668000003</v>
       </c>
       <c r="H10" s="1">
-        <f>Sheet1!H10/500</f>
-        <v>7887.6993826120006</v>
+        <f>Sheet1!H11/500</f>
+        <v>10663.558270648</v>
       </c>
       <c r="I10" s="1">
-        <f>Sheet1!I10/500</f>
-        <v>119.33580535400003</v>
+        <f>Sheet1!I11/500</f>
+        <v>118.79457689199999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="B11" s="1">
-        <f>Sheet1!B11/500</f>
-        <v>13327.115974417999</v>
+        <f>Sheet1!B12/500</f>
+        <v>13705.769869382</v>
       </c>
       <c r="C11" s="1">
-        <f>Sheet1!C11/500</f>
-        <v>41.479091778000004</v>
+        <f>Sheet1!C12/500</f>
+        <v>41.352124334000003</v>
       </c>
       <c r="D11" s="1">
-        <f>Sheet1!D11/500</f>
-        <v>13285.636882638</v>
+        <f>Sheet1!D12/500</f>
+        <v>13664.417745048</v>
       </c>
       <c r="E11" s="1">
-        <f>Sheet1!E11/500</f>
-        <v>114.457614124</v>
+        <f>Sheet1!E12/500</f>
+        <v>113.75986745200001</v>
       </c>
       <c r="F11" s="1">
-        <f>Sheet1!F11/500</f>
-        <v>10700.181603318</v>
+        <f>Sheet1!F12/500</f>
+        <v>12564.195213131999</v>
       </c>
       <c r="G11" s="1">
-        <f>Sheet1!G11/500</f>
-        <v>36.623332668000003</v>
+        <f>Sheet1!G12/500</f>
+        <v>36.378988815999996</v>
       </c>
       <c r="H11" s="1">
-        <f>Sheet1!H11/500</f>
-        <v>10663.558270648</v>
+        <f>Sheet1!H12/500</f>
+        <v>12527.816224314</v>
       </c>
       <c r="I11" s="1">
-        <f>Sheet1!I11/500</f>
-        <v>118.79457689199999</v>
+        <f>Sheet1!I12/500</f>
+        <v>118.130962896</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="B12" s="1">
-        <f>Sheet1!B12/500</f>
-        <v>13705.769869382</v>
+        <f>Sheet1!B13/500</f>
+        <v>13860.753690036001</v>
       </c>
       <c r="C12" s="1">
-        <f>Sheet1!C12/500</f>
-        <v>41.352124334000003</v>
+        <f>Sheet1!C13/500</f>
+        <v>41.365902016</v>
       </c>
       <c r="D12" s="1">
-        <f>Sheet1!D12/500</f>
-        <v>13664.417745048</v>
+        <f>Sheet1!D13/500</f>
+        <v>13819.387788017999</v>
       </c>
       <c r="E12" s="1">
-        <f>Sheet1!E12/500</f>
-        <v>113.75986745200001</v>
+        <f>Sheet1!E13/500</f>
+        <v>113.03020458600001</v>
       </c>
       <c r="F12" s="1">
-        <f>Sheet1!F12/500</f>
-        <v>12564.195213131999</v>
+        <f>Sheet1!F13/500</f>
+        <v>13861.677320286</v>
       </c>
       <c r="G12" s="1">
-        <f>Sheet1!G12/500</f>
-        <v>36.378988815999996</v>
+        <f>Sheet1!G13/500</f>
+        <v>35.966638314000001</v>
       </c>
       <c r="H12" s="1">
-        <f>Sheet1!H12/500</f>
-        <v>12527.816224314</v>
+        <f>Sheet1!H13/500</f>
+        <v>13825.710681972001</v>
       </c>
       <c r="I12" s="1">
-        <f>Sheet1!I12/500</f>
-        <v>118.130962896</v>
+        <f>Sheet1!I13/500</f>
+        <v>117.44666476000002</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B13" s="1">
-        <f>Sheet1!B13/500</f>
-        <v>13860.753690036001</v>
+        <f>Sheet1!B14/500</f>
+        <v>13920.088384084</v>
       </c>
       <c r="C13" s="1">
-        <f>Sheet1!C13/500</f>
-        <v>41.365902016</v>
+        <f>Sheet1!C14/500</f>
+        <v>41.432059561999999</v>
       </c>
       <c r="D13" s="1">
-        <f>Sheet1!D13/500</f>
-        <v>13819.387788017999</v>
+        <f>Sheet1!D14/500</f>
+        <v>13878.656324524</v>
       </c>
       <c r="E13" s="1">
-        <f>Sheet1!E13/500</f>
-        <v>113.03020458600001</v>
+        <f>Sheet1!E14/500</f>
+        <v>112.512850394</v>
       </c>
       <c r="F13" s="1">
-        <f>Sheet1!F13/500</f>
-        <v>13861.677320286</v>
+        <f>Sheet1!F14/500</f>
+        <v>14792.130020084</v>
       </c>
       <c r="G13" s="1">
-        <f>Sheet1!G13/500</f>
-        <v>35.966638314000001</v>
+        <f>Sheet1!G14/500</f>
+        <v>35.629481865999999</v>
       </c>
       <c r="H13" s="1">
-        <f>Sheet1!H13/500</f>
-        <v>13825.710681972001</v>
+        <f>Sheet1!H14/500</f>
+        <v>14756.500538218001</v>
       </c>
       <c r="I13" s="1">
-        <f>Sheet1!I13/500</f>
-        <v>117.44666476000002</v>
+        <f>Sheet1!I14/500</f>
+        <v>116.94675861600001</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="B14" s="1">
-        <f>Sheet1!B14/500</f>
-        <v>13920.088384084</v>
+        <f>Sheet1!B15/500</f>
+        <v>14830.099410930001</v>
       </c>
       <c r="C14" s="1">
-        <f>Sheet1!C14/500</f>
-        <v>41.432059561999999</v>
+        <f>Sheet1!C15/500</f>
+        <v>41.742953809999996</v>
       </c>
       <c r="D14" s="1">
-        <f>Sheet1!D14/500</f>
-        <v>13878.656324524</v>
+        <f>Sheet1!D15/500</f>
+        <v>14788.356457118001</v>
       </c>
       <c r="E14" s="1">
-        <f>Sheet1!E14/500</f>
-        <v>112.512850394</v>
+        <f>Sheet1!E15/500</f>
+        <v>112.42595075200001</v>
       </c>
       <c r="F14" s="1">
-        <f>Sheet1!F14/500</f>
-        <v>14792.130020084</v>
+        <f>Sheet1!F15/500</f>
+        <v>15843.659770414</v>
       </c>
       <c r="G14" s="1">
-        <f>Sheet1!G14/500</f>
-        <v>35.629481865999999</v>
+        <f>Sheet1!G15/500</f>
+        <v>35.332299736000003</v>
       </c>
       <c r="H14" s="1">
-        <f>Sheet1!H14/500</f>
-        <v>14756.500538218001</v>
+        <f>Sheet1!H15/500</f>
+        <v>15808.327470677999</v>
       </c>
       <c r="I14" s="1">
-        <f>Sheet1!I14/500</f>
-        <v>116.94675861600001</v>
+        <f>Sheet1!I15/500</f>
+        <v>116.90244483799999</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="B15" s="1">
-        <f>Sheet1!B15/500</f>
-        <v>14830.099410930001</v>
+        <f>Sheet1!B16/500</f>
+        <v>15355.742286722001</v>
       </c>
       <c r="C15" s="1">
-        <f>Sheet1!C15/500</f>
-        <v>41.742953809999996</v>
+        <f>Sheet1!C16/500</f>
+        <v>41.650548622000002</v>
       </c>
       <c r="D15" s="1">
-        <f>Sheet1!D15/500</f>
-        <v>14788.356457118001</v>
+        <f>Sheet1!D16/500</f>
+        <v>15314.0917381</v>
       </c>
       <c r="E15" s="1">
-        <f>Sheet1!E15/500</f>
-        <v>112.42595075200001</v>
+        <f>Sheet1!E16/500</f>
+        <v>111.68378587799999</v>
       </c>
       <c r="F15" s="1">
-        <f>Sheet1!F15/500</f>
-        <v>15843.659770414</v>
+        <f>Sheet1!F16/500</f>
+        <v>16423.021213664</v>
       </c>
       <c r="G15" s="1">
-        <f>Sheet1!G15/500</f>
-        <v>35.332299736000003</v>
+        <f>Sheet1!G16/500</f>
+        <v>34.925117444000001</v>
       </c>
       <c r="H15" s="1">
-        <f>Sheet1!H15/500</f>
-        <v>15808.327470677999</v>
+        <f>Sheet1!H16/500</f>
+        <v>16388.096096220001</v>
       </c>
       <c r="I15" s="1">
-        <f>Sheet1!I15/500</f>
-        <v>116.90244483799999</v>
+        <f>Sheet1!I16/500</f>
+        <v>116.16182756799999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="B16" s="1">
-        <f>Sheet1!B16/500</f>
-        <v>15355.742286722001</v>
+        <f>Sheet1!B17/500</f>
+        <v>15472.345413159999</v>
       </c>
       <c r="C16" s="1">
-        <f>Sheet1!C16/500</f>
-        <v>41.650548622000002</v>
+        <f>Sheet1!C17/500</f>
+        <v>41.694764857999999</v>
       </c>
       <c r="D16" s="1">
-        <f>Sheet1!D16/500</f>
-        <v>15314.0917381</v>
+        <f>Sheet1!D17/500</f>
+        <v>15430.650648302</v>
       </c>
       <c r="E16" s="1">
-        <f>Sheet1!E16/500</f>
-        <v>111.68378587799999</v>
+        <f>Sheet1!E17/500</f>
+        <v>111.45014922199999</v>
       </c>
       <c r="F16" s="1">
-        <f>Sheet1!F16/500</f>
-        <v>16423.021213664</v>
+        <f>Sheet1!F17/500</f>
+        <v>16820.855524634</v>
       </c>
       <c r="G16" s="1">
-        <f>Sheet1!G16/500</f>
-        <v>34.925117444000001</v>
+        <f>Sheet1!G17/500</f>
+        <v>34.717447596</v>
       </c>
       <c r="H16" s="1">
-        <f>Sheet1!H16/500</f>
-        <v>16388.096096220001</v>
+        <f>Sheet1!H17/500</f>
+        <v>16786.138077040003</v>
       </c>
       <c r="I16" s="1">
-        <f>Sheet1!I16/500</f>
-        <v>116.16182756799999</v>
+        <f>Sheet1!I17/500</f>
+        <v>115.905846158</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="B17" s="1">
-        <f>Sheet1!B17/500</f>
-        <v>15472.345413159999</v>
+        <f>Sheet1!B18/500</f>
+        <v>16288.267404546001</v>
       </c>
       <c r="C17" s="1">
-        <f>Sheet1!C17/500</f>
-        <v>41.694764857999999</v>
+        <f>Sheet1!C18/500</f>
+        <v>41.859798316000003</v>
       </c>
       <c r="D17" s="1">
-        <f>Sheet1!D17/500</f>
-        <v>15430.650648302</v>
+        <f>Sheet1!D18/500</f>
+        <v>16246.407606228</v>
       </c>
       <c r="E17" s="1">
-        <f>Sheet1!E17/500</f>
-        <v>111.45014922199999</v>
+        <f>Sheet1!E18/500</f>
+        <v>111.425958134</v>
       </c>
       <c r="F17" s="1">
-        <f>Sheet1!F17/500</f>
-        <v>16820.855524634</v>
+        <f>Sheet1!F18/500</f>
+        <v>17373.047275972</v>
       </c>
       <c r="G17" s="1">
-        <f>Sheet1!G17/500</f>
-        <v>34.717447596</v>
+        <f>Sheet1!G18/500</f>
+        <v>34.375119037999994</v>
       </c>
       <c r="H17" s="1">
-        <f>Sheet1!H17/500</f>
-        <v>16786.138077040003</v>
+        <f>Sheet1!H18/500</f>
+        <v>17338.672156936002</v>
       </c>
       <c r="I17" s="1">
-        <f>Sheet1!I17/500</f>
-        <v>115.905846158</v>
+        <f>Sheet1!I18/500</f>
+        <v>115.911268154</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="B18" s="1">
-        <f>Sheet1!B18/500</f>
-        <v>16288.267404546001</v>
+        <f>Sheet1!B19/500</f>
+        <v>17233.023718274002</v>
       </c>
       <c r="C18" s="1">
-        <f>Sheet1!C18/500</f>
-        <v>41.859798316000003</v>
+        <f>Sheet1!C19/500</f>
+        <v>41.370785662000003</v>
       </c>
       <c r="D18" s="1">
-        <f>Sheet1!D18/500</f>
-        <v>16246.407606228</v>
+        <f>Sheet1!D19/500</f>
+        <v>17191.652932612</v>
       </c>
       <c r="E18" s="1">
-        <f>Sheet1!E18/500</f>
-        <v>111.425958134</v>
+        <f>Sheet1!E19/500</f>
+        <v>110.280728306</v>
       </c>
       <c r="F18" s="1">
-        <f>Sheet1!F18/500</f>
-        <v>17373.047275972</v>
+        <f>Sheet1!F19/500</f>
+        <v>17832.063207479998</v>
       </c>
       <c r="G18" s="1">
-        <f>Sheet1!G18/500</f>
-        <v>34.375119037999994</v>
+        <f>Sheet1!G19/500</f>
+        <v>33.977999108000006</v>
       </c>
       <c r="H18" s="1">
-        <f>Sheet1!H18/500</f>
-        <v>17338.672156936002</v>
+        <f>Sheet1!H19/500</f>
+        <v>17798.085208372002</v>
       </c>
       <c r="I18" s="1">
-        <f>Sheet1!I18/500</f>
-        <v>115.911268154</v>
+        <f>Sheet1!I19/500</f>
+        <v>114.75898836600001</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -2727,188 +1777,150 @@
         <v>0.8</v>
       </c>
       <c r="B19" s="1">
-        <f>Sheet1!B19/500</f>
-        <v>17233.023718274002</v>
+        <f>Sheet1!B20/500</f>
+        <v>17835.609180653999</v>
       </c>
       <c r="C19" s="1">
-        <f>Sheet1!C19/500</f>
-        <v>41.370785662000003</v>
+        <f>Sheet1!C20/500</f>
+        <v>40.705073005999999</v>
       </c>
       <c r="D19" s="1">
-        <f>Sheet1!D19/500</f>
-        <v>17191.652932612</v>
+        <f>Sheet1!D20/500</f>
+        <v>17794.904107645998</v>
       </c>
       <c r="E19" s="1">
-        <f>Sheet1!E19/500</f>
-        <v>110.280728306</v>
+        <f>Sheet1!E20/500</f>
+        <v>108.60049891200002</v>
       </c>
       <c r="F19" s="1">
-        <f>Sheet1!F19/500</f>
-        <v>17832.063207479998</v>
+        <f>Sheet1!F20/500</f>
+        <v>18041.251284212001</v>
       </c>
       <c r="G19" s="1">
-        <f>Sheet1!G19/500</f>
-        <v>33.977999108000006</v>
+        <f>Sheet1!G20/500</f>
+        <v>33.39936711</v>
       </c>
       <c r="H19" s="1">
-        <f>Sheet1!H19/500</f>
-        <v>17798.085208372002</v>
+        <f>Sheet1!H20/500</f>
+        <v>18007.851917102002</v>
       </c>
       <c r="I19" s="1">
-        <f>Sheet1!I19/500</f>
-        <v>114.75898836600001</v>
+        <f>Sheet1!I20/500</f>
+        <v>113.10227357799999</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="B20" s="1">
-        <f>Sheet1!B20/500</f>
-        <v>17835.609180653999</v>
+        <f>Sheet1!B21/500</f>
+        <v>18377.529335698</v>
       </c>
       <c r="C20" s="1">
-        <f>Sheet1!C20/500</f>
-        <v>40.705073005999999</v>
+        <f>Sheet1!C21/500</f>
+        <v>40.529749387999999</v>
       </c>
       <c r="D20" s="1">
-        <f>Sheet1!D20/500</f>
-        <v>17794.904107645998</v>
+        <f>Sheet1!D21/500</f>
+        <v>18336.999586309998</v>
       </c>
       <c r="E20" s="1">
-        <f>Sheet1!E20/500</f>
-        <v>108.60049891200002</v>
+        <f>Sheet1!E21/500</f>
+        <v>108.09934244999999</v>
       </c>
       <c r="F20" s="1">
-        <f>Sheet1!F20/500</f>
-        <v>18041.251284212001</v>
+        <f>Sheet1!F21/500</f>
+        <v>18227.706288582001</v>
       </c>
       <c r="G20" s="1">
-        <f>Sheet1!G20/500</f>
-        <v>33.39936711</v>
+        <f>Sheet1!G21/500</f>
+        <v>33.130760774000002</v>
       </c>
       <c r="H20" s="1">
-        <f>Sheet1!H20/500</f>
-        <v>18007.851917102002</v>
+        <f>Sheet1!H21/500</f>
+        <v>18194.575527805999</v>
       </c>
       <c r="I20" s="1">
-        <f>Sheet1!I20/500</f>
-        <v>113.10227357799999</v>
+        <f>Sheet1!I21/500</f>
+        <v>112.59327963800001</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="B21" s="1">
-        <f>Sheet1!B21/500</f>
-        <v>18377.529335698</v>
+        <f>Sheet1!B22/500</f>
+        <v>18964.891827332001</v>
       </c>
       <c r="C21" s="1">
-        <f>Sheet1!C21/500</f>
-        <v>40.529749387999999</v>
+        <f>Sheet1!C22/500</f>
+        <v>40.164488856000006</v>
       </c>
       <c r="D21" s="1">
-        <f>Sheet1!D21/500</f>
-        <v>18336.999586309998</v>
+        <f>Sheet1!D22/500</f>
+        <v>18924.727338475997</v>
       </c>
       <c r="E21" s="1">
-        <f>Sheet1!E21/500</f>
-        <v>108.09934244999999</v>
+        <f>Sheet1!E22/500</f>
+        <v>107.17771908400003</v>
       </c>
       <c r="F21" s="1">
-        <f>Sheet1!F21/500</f>
-        <v>18227.706288582001</v>
+        <f>Sheet1!F22/500</f>
+        <v>18400.350859369999</v>
       </c>
       <c r="G21" s="1">
-        <f>Sheet1!G21/500</f>
-        <v>33.130760774000002</v>
+        <f>Sheet1!G22/500</f>
+        <v>32.768104030000003</v>
       </c>
       <c r="H21" s="1">
-        <f>Sheet1!H21/500</f>
-        <v>18194.575527805999</v>
+        <f>Sheet1!H22/500</f>
+        <v>18367.582755339998</v>
       </c>
       <c r="I21" s="1">
-        <f>Sheet1!I21/500</f>
-        <v>112.59327963800001</v>
+        <f>Sheet1!I22/500</f>
+        <v>111.68817493399999</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="B22" s="1">
-        <f>Sheet1!B22/500</f>
-        <v>18964.891827332001</v>
-      </c>
-      <c r="C22" s="1">
-        <f>Sheet1!C22/500</f>
-        <v>40.164488856000006</v>
-      </c>
-      <c r="D22" s="1">
-        <f>Sheet1!D22/500</f>
-        <v>18924.727338475997</v>
-      </c>
-      <c r="E22" s="1">
-        <f>Sheet1!E22/500</f>
-        <v>107.17771908400003</v>
-      </c>
-      <c r="F22" s="1">
-        <f>Sheet1!F22/500</f>
-        <v>18400.350859369999</v>
-      </c>
-      <c r="G22" s="1">
-        <f>Sheet1!G22/500</f>
-        <v>32.768104030000003</v>
-      </c>
-      <c r="H22" s="1">
-        <f>Sheet1!H22/500</f>
-        <v>18367.582755339998</v>
-      </c>
-      <c r="I22" s="1">
-        <f>Sheet1!I22/500</f>
-        <v>111.68817493399999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="B23" s="1">
         <f>Sheet1!B23/500</f>
         <v>19301.144554127997</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C22" s="1">
         <f>Sheet1!C23/500</f>
         <v>39.903353291999998</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D22" s="1">
         <f>Sheet1!D23/500</f>
         <v>19261.241200836001</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E22" s="1">
         <f>Sheet1!E23/500</f>
         <v>106.63703615600001</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F22" s="1">
         <f>Sheet1!F23/500</f>
         <v>18425.221956427999</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G22" s="1">
         <f>Sheet1!G23/500</f>
         <v>32.534746493999997</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H22" s="1">
         <f>Sheet1!H23/500</f>
         <v>18392.687209934</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I22" s="1">
         <f>Sheet1!I23/500</f>
         <v>111.151210842</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>